--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLTrail\AtegrityQAAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17C58A-BAEF-4519-98C7-56F1FD77AC3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FE865-14B6-4137-8D97-AEC771D9D5BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Pramod" sheetId="2" r:id="rId2"/>
     <sheet name="Benit" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Action</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
     <t>HomePage</t>
   </si>
   <si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>//*[@id='HomePage']</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>kill</t>
   </si>
 </sst>
 </file>
@@ -472,16 +475,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +546,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -588,7 +591,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>

--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLTrail\AtegrityQAAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FE865-14B6-4137-8D97-AEC771D9D5BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA897D-DF2E-42BF-ACC3-A7AB76006A84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>//*[@id='HomePage']</t>
   </si>
   <si>
-    <t>//*[@id='password']</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>//*[@id='login']</t>
+  </si>
+  <si>
+    <t>milk</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLTrail\AtegrityQAAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bob repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA897D-DF2E-42BF-ACC3-A7AB76006A84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D0786-6460-446E-9DFD-B2DA17B55EFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Action</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>milk</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>//*[@id='css']</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734220B3-6980-4894-8296-7E1B2F6BA5E0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +609,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLTrail\AtegrityQAAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA897D-DF2E-42BF-ACC3-A7AB76006A84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD354A38-DFA4-4F20-BF53-76315F3074FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Action</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>milk</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>shubham</t>
   </si>
 </sst>
 </file>
@@ -543,10 +558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734220B3-6980-4894-8296-7E1B2F6BA5E0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +615,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bob repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D0786-6460-446E-9DFD-B2DA17B55EFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AF974-9ABE-4AE1-ACAF-BF0852A70B45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Action</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>ExcessLiability</t>
   </si>
 </sst>
 </file>
@@ -555,11 +558,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -611,7 +615,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>

--- a/Testingpurpose.xlsx
+++ b/Testingpurpose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bob repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F57F3B-DEA6-4C04-9C10-17E19DD8E5E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09195699-0850-4C79-A1FA-0BD936F0F7EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32A02B53-A4ED-4458-9A43-EDCF3A1EF2ED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Action</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>shubham</t>
+  </si>
+  <si>
+    <t>merer</t>
+  </si>
+  <si>
+    <t>terer</t>
+  </si>
+  <si>
+    <t>lerel</t>
+  </si>
+  <si>
+    <t>vivaan</t>
+  </si>
+  <si>
+    <t>nayan</t>
+  </si>
+  <si>
+    <t>joshi</t>
   </si>
 </sst>
 </file>
@@ -558,10 +576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734220B3-6980-4894-8296-7E1B2F6BA5E0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +651,57 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
